--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22588,6 +22588,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>45446.2916666667</v>
+      </c>
+      <c r="B816" t="n">
+        <v>0</v>
+      </c>
+      <c r="C816" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="G816" t="s">
+        <v>316</v>
+      </c>
+      <c r="H816" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22614,6 +22614,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>45447.2916666667</v>
+      </c>
+      <c r="B817" t="n">
+        <v>0</v>
+      </c>
+      <c r="C817" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="G817" t="s">
+        <v>316</v>
+      </c>
+      <c r="H817" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1059,6 +1059,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.01999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805000007152557</t>
   </si>
 </sst>
 </file>
@@ -22640,6 +22643,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B818" t="n">
+        <v>0</v>
+      </c>
+      <c r="C818" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="G818" t="s">
+        <v>316</v>
+      </c>
+      <c r="H818" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>45449.3290972222</v>
+      </c>
+      <c r="B819" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C819" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G819" t="s">
+        <v>349</v>
+      </c>
+      <c r="H819" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22671,7 +22671,7 @@
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
-        <v>45449.3290972222</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B819" t="n">
         <v>2000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22695,6 +22695,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B820" t="n">
+        <v>0</v>
+      </c>
+      <c r="C820" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G820" t="s">
+        <v>349</v>
+      </c>
+      <c r="H820" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22721,6 +22721,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B821" t="n">
+        <v>0</v>
+      </c>
+      <c r="C821" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G821" t="s">
+        <v>349</v>
+      </c>
+      <c r="H821" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22747,6 +22747,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B822" t="n">
+        <v>0</v>
+      </c>
+      <c r="C822" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G822" t="s">
+        <v>349</v>
+      </c>
+      <c r="H822" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B823" t="n">
+        <v>0</v>
+      </c>
+      <c r="C823" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E823" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G823" t="s">
+        <v>349</v>
+      </c>
+      <c r="H823" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22799,6 +22799,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B824" t="n">
+        <v>0</v>
+      </c>
+      <c r="C824" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G824" t="s">
+        <v>349</v>
+      </c>
+      <c r="H824" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>45457.2959490741</v>
+      </c>
+      <c r="B825" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C825" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E825" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G825" t="s">
+        <v>349</v>
+      </c>
+      <c r="H825" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22827,7 +22827,7 @@
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
-        <v>45457.2959490741</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B825" t="n">
         <v>3200</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22851,6 +22851,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B826" t="n">
+        <v>0</v>
+      </c>
+      <c r="C826" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="G826" t="s">
+        <v>349</v>
+      </c>
+      <c r="H826" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>45461.3699421296</v>
+      </c>
+      <c r="B827" t="n">
+        <v>800</v>
+      </c>
+      <c r="C827" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E827" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G827" t="s">
+        <v>292</v>
+      </c>
+      <c r="H827" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22879,7 +22879,7 @@
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
-        <v>45461.3699421296</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B827" t="n">
         <v>800</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22903,6 +22903,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B828" t="n">
+        <v>0</v>
+      </c>
+      <c r="C828" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E828" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G828" t="s">
+        <v>292</v>
+      </c>
+      <c r="H828" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22929,6 +22929,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B829" t="n">
+        <v>0</v>
+      </c>
+      <c r="C829" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E829" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G829" t="s">
+        <v>292</v>
+      </c>
+      <c r="H829" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22955,6 +22955,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B830" t="n">
+        <v>0</v>
+      </c>
+      <c r="C830" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E830" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G830" t="s">
+        <v>292</v>
+      </c>
+      <c r="H830" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -22981,6 +22981,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>45467.2916666667</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0</v>
+      </c>
+      <c r="C831" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E831" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G831" t="s">
+        <v>292</v>
+      </c>
+      <c r="H831" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23007,6 +23007,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0</v>
+      </c>
+      <c r="C832" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D832" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E832" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G832" t="s">
+        <v>292</v>
+      </c>
+      <c r="H832" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23033,6 +23033,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>45469.2916666667</v>
+      </c>
+      <c r="B833" t="n">
+        <v>0</v>
+      </c>
+      <c r="C833" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D833" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E833" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G833" t="s">
+        <v>292</v>
+      </c>
+      <c r="H833" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23059,6 +23059,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B834" t="n">
+        <v>0</v>
+      </c>
+      <c r="C834" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D834" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E834" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G834" t="s">
+        <v>292</v>
+      </c>
+      <c r="H834" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>45471.3010532407</v>
+      </c>
+      <c r="B835" t="n">
+        <v>400</v>
+      </c>
+      <c r="C835" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="D835" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="G835" t="s">
+        <v>332</v>
+      </c>
+      <c r="H835" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23087,7 +23087,7 @@
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
-        <v>45471.3010532407</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B835" t="n">
         <v>400</v>
@@ -23108,6 +23108,32 @@
         <v>332</v>
       </c>
       <c r="H835" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>45474.4641666667</v>
+      </c>
+      <c r="B836" t="n">
+        <v>400</v>
+      </c>
+      <c r="C836" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D836" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E836" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G836" t="s">
+        <v>285</v>
+      </c>
+      <c r="H836" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23113,7 +23113,7 @@
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
-        <v>45474.4641666667</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B836" t="n">
         <v>400</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23137,6 +23137,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>45475.2916666667</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0</v>
+      </c>
+      <c r="C837" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D837" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E837" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G837" t="s">
+        <v>285</v>
+      </c>
+      <c r="H837" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>45476.5966087963</v>
+      </c>
+      <c r="B838" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C838" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D838" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="E838" t="n">
+        <v>0.805000007152557</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G838" t="s">
+        <v>285</v>
+      </c>
+      <c r="H838" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23165,7 +23165,7 @@
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
-        <v>45476.5966087963</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B838" t="n">
         <v>2800</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23189,6 +23189,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B839" t="n">
+        <v>0</v>
+      </c>
+      <c r="C839" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E839" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G839" t="s">
+        <v>285</v>
+      </c>
+      <c r="H839" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23215,6 +23215,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>45478.2916666667</v>
+      </c>
+      <c r="B840" t="n">
+        <v>0</v>
+      </c>
+      <c r="C840" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D840" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E840" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G840" t="s">
+        <v>285</v>
+      </c>
+      <c r="H840" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23241,6 +23241,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>45481.2916666667</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0</v>
+      </c>
+      <c r="C841" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D841" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E841" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G841" t="s">
+        <v>285</v>
+      </c>
+      <c r="H841" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23267,6 +23267,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>45482.2916666667</v>
+      </c>
+      <c r="B842" t="n">
+        <v>0</v>
+      </c>
+      <c r="C842" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D842" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E842" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G842" t="s">
+        <v>285</v>
+      </c>
+      <c r="H842" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23293,6 +23293,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>45483.2916666667</v>
+      </c>
+      <c r="B843" t="n">
+        <v>0</v>
+      </c>
+      <c r="C843" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E843" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G843" t="s">
+        <v>285</v>
+      </c>
+      <c r="H843" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23319,6 +23319,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>45484.2916666667</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0</v>
+      </c>
+      <c r="C844" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D844" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E844" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G844" t="s">
+        <v>285</v>
+      </c>
+      <c r="H844" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23345,6 +23345,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>45485.2916666667</v>
+      </c>
+      <c r="B845" t="n">
+        <v>0</v>
+      </c>
+      <c r="C845" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D845" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E845" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G845" t="s">
+        <v>285</v>
+      </c>
+      <c r="H845" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23371,6 +23371,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>45488.2916666667</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0</v>
+      </c>
+      <c r="C846" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D846" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E846" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G846" t="s">
+        <v>285</v>
+      </c>
+      <c r="H846" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23397,6 +23397,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>45489.2916666667</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0</v>
+      </c>
+      <c r="C847" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D847" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E847" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G847" t="s">
+        <v>285</v>
+      </c>
+      <c r="H847" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>45490.5844444444</v>
+      </c>
+      <c r="B848" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C848" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="D848" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="E848" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="G848" t="s">
+        <v>243</v>
+      </c>
+      <c r="H848" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23425,7 +23425,7 @@
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
-        <v>45490.5844444444</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B848" t="n">
         <v>10000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23449,6 +23449,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>45491.2916666667</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0</v>
+      </c>
+      <c r="C849" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="D849" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="E849" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="G849" t="s">
+        <v>243</v>
+      </c>
+      <c r="H849" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>45492.6162268519</v>
+      </c>
+      <c r="B850" t="n">
+        <v>400</v>
+      </c>
+      <c r="C850" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="D850" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="G850" t="s">
+        <v>243</v>
+      </c>
+      <c r="H850" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23477,7 +23477,7 @@
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
-        <v>45492.6162268519</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B850" t="n">
         <v>400</v>
@@ -23498,6 +23498,32 @@
         <v>243</v>
       </c>
       <c r="H850" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>45495.6088541667</v>
+      </c>
+      <c r="B851" t="n">
+        <v>46400</v>
+      </c>
+      <c r="C851" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0.725000023841858</v>
+      </c>
+      <c r="E851" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="G851" t="s">
+        <v>336</v>
+      </c>
+      <c r="H851" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23503,7 +23503,7 @@
     </row>
     <row r="851">
       <c r="A851" s="1" t="n">
-        <v>45495.6088541667</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B851" t="n">
         <v>46400</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23527,6 +23527,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>45496.2916666667</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0</v>
+      </c>
+      <c r="C852" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="D852" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="E852" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="G852" t="s">
+        <v>336</v>
+      </c>
+      <c r="H852" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>45497.6493402778</v>
+      </c>
+      <c r="B853" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C853" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="D853" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E853" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="G853" t="s">
+        <v>242</v>
+      </c>
+      <c r="H853" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23555,7 +23555,7 @@
     </row>
     <row r="853">
       <c r="A853" s="1" t="n">
-        <v>45497.6493402778</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B853" t="n">
         <v>44000</v>
@@ -23576,6 +23576,32 @@
         <v>242</v>
       </c>
       <c r="H853" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>45498.3150347222</v>
+      </c>
+      <c r="B854" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C854" t="n">
+        <v>0.795000016689301</v>
+      </c>
+      <c r="D854" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="E854" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="G854" t="s">
+        <v>332</v>
+      </c>
+      <c r="H854" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23581,7 +23581,7 @@
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
-        <v>45498.3150347222</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B854" t="n">
         <v>8000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23605,6 +23605,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>45499.2916666667</v>
+      </c>
+      <c r="B855" t="n">
+        <v>0</v>
+      </c>
+      <c r="C855" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="D855" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="E855" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="G855" t="s">
+        <v>332</v>
+      </c>
+      <c r="H855" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>45502.6349768519</v>
+      </c>
+      <c r="B856" t="n">
+        <v>800</v>
+      </c>
+      <c r="C856" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D856" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="E856" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G856" t="s">
+        <v>240</v>
+      </c>
+      <c r="H856" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23633,7 +23633,7 @@
     </row>
     <row r="856">
       <c r="A856" s="1" t="n">
-        <v>45502.6349768519</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B856" t="n">
         <v>800</v>
@@ -23654,6 +23654,32 @@
         <v>240</v>
       </c>
       <c r="H856" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>45503.3068402778</v>
+      </c>
+      <c r="B857" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C857" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="D857" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="E857" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="G857" t="s">
+        <v>243</v>
+      </c>
+      <c r="H857" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23659,7 +23659,7 @@
     </row>
     <row r="857">
       <c r="A857" s="1" t="n">
-        <v>45503.3068402778</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B857" t="n">
         <v>7200</v>
@@ -23680,6 +23680,32 @@
         <v>243</v>
       </c>
       <c r="H857" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>45504.3167476852</v>
+      </c>
+      <c r="B858" t="n">
+        <v>4400</v>
+      </c>
+      <c r="C858" t="n">
+        <v>0.795000016689301</v>
+      </c>
+      <c r="D858" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="E858" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.795000016689301</v>
+      </c>
+      <c r="G858" t="s">
+        <v>314</v>
+      </c>
+      <c r="H858" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23685,7 +23685,7 @@
     </row>
     <row r="858">
       <c r="A858" s="1" t="n">
-        <v>45504.3167476852</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B858" t="n">
         <v>4400</v>
@@ -23706,6 +23706,32 @@
         <v>314</v>
       </c>
       <c r="H858" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>45505.5970138889</v>
+      </c>
+      <c r="B859" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C859" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="D859" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E859" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G859" t="s">
+        <v>334</v>
+      </c>
+      <c r="H859" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23711,7 +23711,7 @@
     </row>
     <row r="859">
       <c r="A859" s="1" t="n">
-        <v>45505.5970138889</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B859" t="n">
         <v>4800</v>
@@ -23732,6 +23732,32 @@
         <v>334</v>
       </c>
       <c r="H859" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>45506.6375</v>
+      </c>
+      <c r="B860" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C860" t="n">
+        <v>0.730000019073486</v>
+      </c>
+      <c r="D860" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="E860" t="n">
+        <v>0.730000019073486</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="G860" t="s">
+        <v>246</v>
+      </c>
+      <c r="H860" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1062,6 +1062,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.805000007152557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.714999973773956</t>
   </si>
 </sst>
 </file>
@@ -23737,7 +23740,7 @@
     </row>
     <row r="860">
       <c r="A860" s="1" t="n">
-        <v>45506.6375</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B860" t="n">
         <v>2800</v>
@@ -23758,6 +23761,32 @@
         <v>246</v>
       </c>
       <c r="H860" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>45509.3031828704</v>
+      </c>
+      <c r="B861" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C861" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="D861" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="G861" t="s">
+        <v>350</v>
+      </c>
+      <c r="H861" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23766,7 +23766,7 @@
     </row>
     <row r="861">
       <c r="A861" s="1" t="n">
-        <v>45509.3031828704</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B861" t="n">
         <v>7600</v>
@@ -23787,6 +23787,58 @@
         <v>350</v>
       </c>
       <c r="H861" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0</v>
+      </c>
+      <c r="C862" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="D862" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="E862" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="G862" t="s">
+        <v>350</v>
+      </c>
+      <c r="H862" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>45511.6030555556</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C863" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="E863" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="G863" t="s">
+        <v>336</v>
+      </c>
+      <c r="H863" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23818,7 +23818,7 @@
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
-        <v>45511.6030555556</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B863" t="n">
         <v>1200</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23842,6 +23842,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>45512.2916666667</v>
+      </c>
+      <c r="B864" t="n">
+        <v>0</v>
+      </c>
+      <c r="C864" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="D864" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="E864" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="G864" t="s">
+        <v>336</v>
+      </c>
+      <c r="H864" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>45513.4512847222</v>
+      </c>
+      <c r="B865" t="n">
+        <v>16800</v>
+      </c>
+      <c r="C865" t="n">
+        <v>0.764999985694885</v>
+      </c>
+      <c r="D865" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="E865" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.764999985694885</v>
+      </c>
+      <c r="G865" t="s">
+        <v>339</v>
+      </c>
+      <c r="H865" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23870,7 +23870,7 @@
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
-        <v>45513.4512847222</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B865" t="n">
         <v>16800</v>
@@ -23891,6 +23891,32 @@
         <v>339</v>
       </c>
       <c r="H865" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>45516.352662037</v>
+      </c>
+      <c r="B866" t="n">
+        <v>400</v>
+      </c>
+      <c r="C866" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="D866" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="E866" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="G866" t="s">
+        <v>264</v>
+      </c>
+      <c r="H866" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23896,7 +23896,7 @@
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
-        <v>45516.352662037</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B866" t="n">
         <v>400</v>
@@ -23917,6 +23917,32 @@
         <v>264</v>
       </c>
       <c r="H866" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>45517.6357523148</v>
+      </c>
+      <c r="B867" t="n">
+        <v>800</v>
+      </c>
+      <c r="C867" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D867" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="E867" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G867" t="s">
+        <v>337</v>
+      </c>
+      <c r="H867" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23922,7 +23922,7 @@
     </row>
     <row r="867">
       <c r="A867" s="1" t="n">
-        <v>45517.6357523148</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B867" t="n">
         <v>800</v>
@@ -23943,6 +23943,32 @@
         <v>337</v>
       </c>
       <c r="H867" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>45518.4087268518</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C868" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D868" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E868" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G868" t="s">
+        <v>240</v>
+      </c>
+      <c r="H868" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23948,7 +23948,7 @@
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
-        <v>45518.4087268518</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B868" t="n">
         <v>1200</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23972,6 +23972,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>45520.2916666667</v>
+      </c>
+      <c r="B869" t="n">
+        <v>0</v>
+      </c>
+      <c r="C869" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D869" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E869" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G869" t="s">
+        <v>240</v>
+      </c>
+      <c r="H869" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -23998,6 +23998,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>45523.2916666667</v>
+      </c>
+      <c r="B870" t="n">
+        <v>0</v>
+      </c>
+      <c r="C870" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D870" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E870" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G870" t="s">
+        <v>240</v>
+      </c>
+      <c r="H870" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24024,6 +24024,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>45524.2916666667</v>
+      </c>
+      <c r="B871" t="n">
+        <v>0</v>
+      </c>
+      <c r="C871" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D871" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E871" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G871" t="s">
+        <v>240</v>
+      </c>
+      <c r="H871" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24050,6 +24050,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>45525.2916666667</v>
+      </c>
+      <c r="B872" t="n">
+        <v>0</v>
+      </c>
+      <c r="C872" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D872" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E872" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G872" t="s">
+        <v>240</v>
+      </c>
+      <c r="H872" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24076,6 +24076,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>45526.2916666667</v>
+      </c>
+      <c r="B873" t="n">
+        <v>0</v>
+      </c>
+      <c r="C873" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D873" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E873" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G873" t="s">
+        <v>240</v>
+      </c>
+      <c r="H873" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24102,6 +24102,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>45527.2916666667</v>
+      </c>
+      <c r="B874" t="n">
+        <v>0</v>
+      </c>
+      <c r="C874" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D874" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E874" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G874" t="s">
+        <v>240</v>
+      </c>
+      <c r="H874" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>45530.6299305556</v>
+      </c>
+      <c r="B875" t="n">
+        <v>800</v>
+      </c>
+      <c r="C875" t="n">
+        <v>0.725000023841858</v>
+      </c>
+      <c r="D875" t="n">
+        <v>0.725000023841858</v>
+      </c>
+      <c r="E875" t="n">
+        <v>0.725000023841858</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.725000023841858</v>
+      </c>
+      <c r="G875" t="s">
+        <v>338</v>
+      </c>
+      <c r="H875" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24130,7 +24130,7 @@
     </row>
     <row r="875">
       <c r="A875" s="1" t="n">
-        <v>45530.6299305556</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B875" t="n">
         <v>800</v>
@@ -24151,6 +24151,32 @@
         <v>338</v>
       </c>
       <c r="H875" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>45531.5631597222</v>
+      </c>
+      <c r="B876" t="n">
+        <v>800</v>
+      </c>
+      <c r="C876" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D876" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E876" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G876" t="s">
+        <v>337</v>
+      </c>
+      <c r="H876" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24156,7 +24156,7 @@
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
-        <v>45531.5631597222</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B876" t="n">
         <v>800</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24180,6 +24180,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>45532.2916666667</v>
+      </c>
+      <c r="B877" t="n">
+        <v>0</v>
+      </c>
+      <c r="C877" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D877" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E877" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G877" t="s">
+        <v>337</v>
+      </c>
+      <c r="H877" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -1072,7 +1072,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1110,7 +1110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24206,6 +24206,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>45533.2916666667</v>
+      </c>
+      <c r="B878" t="n">
+        <v>0</v>
+      </c>
+      <c r="C878" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D878" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E878" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G878" t="s">
+        <v>337</v>
+      </c>
+      <c r="H878" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24232,6 +24232,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>45534.2916666667</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0</v>
+      </c>
+      <c r="C879" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D879" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E879" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G879" t="s">
+        <v>337</v>
+      </c>
+      <c r="H879" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24258,6 +24258,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>45537.2916666667</v>
+      </c>
+      <c r="B880" t="n">
+        <v>0</v>
+      </c>
+      <c r="C880" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D880" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E880" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G880" t="s">
+        <v>337</v>
+      </c>
+      <c r="H880" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24284,6 +24284,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>45538.2916666667</v>
+      </c>
+      <c r="B881" t="n">
+        <v>0</v>
+      </c>
+      <c r="C881" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D881" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E881" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G881" t="s">
+        <v>337</v>
+      </c>
+      <c r="H881" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24310,6 +24310,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>45539.2916666667</v>
+      </c>
+      <c r="B882" t="n">
+        <v>0</v>
+      </c>
+      <c r="C882" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D882" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E882" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G882" t="s">
+        <v>337</v>
+      </c>
+      <c r="H882" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24336,6 +24336,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>45540.2916666667</v>
+      </c>
+      <c r="B883" t="n">
+        <v>0</v>
+      </c>
+      <c r="C883" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D883" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E883" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G883" t="s">
+        <v>337</v>
+      </c>
+      <c r="H883" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24362,6 +24362,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>45541.2916666667</v>
+      </c>
+      <c r="B884" t="n">
+        <v>0</v>
+      </c>
+      <c r="C884" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D884" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E884" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G884" t="s">
+        <v>337</v>
+      </c>
+      <c r="H884" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24388,6 +24388,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>45544.2916666667</v>
+      </c>
+      <c r="B885" t="n">
+        <v>0</v>
+      </c>
+      <c r="C885" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D885" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E885" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G885" t="s">
+        <v>337</v>
+      </c>
+      <c r="H885" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>45545.3111574074</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C886" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="D886" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="E886" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="G886" t="s">
+        <v>246</v>
+      </c>
+      <c r="H886" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1065,6 +1065,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.714999973773956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694999992847443</t>
   </si>
 </sst>
 </file>
@@ -24416,7 +24419,7 @@
     </row>
     <row r="886">
       <c r="A886" s="1" t="n">
-        <v>45545.3111574074</v>
+        <v>45545.2916666667</v>
       </c>
       <c r="B886" t="n">
         <v>1600</v>
@@ -24437,6 +24440,32 @@
         <v>246</v>
       </c>
       <c r="H886" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>45546.4156365741</v>
+      </c>
+      <c r="B887" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C887" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="D887" t="n">
+        <v>0.694999992847443</v>
+      </c>
+      <c r="E887" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.694999992847443</v>
+      </c>
+      <c r="G887" t="s">
+        <v>351</v>
+      </c>
+      <c r="H887" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24445,7 +24445,7 @@
     </row>
     <row r="887">
       <c r="A887" s="1" t="n">
-        <v>45546.4156365741</v>
+        <v>45546.2916666667</v>
       </c>
       <c r="B887" t="n">
         <v>2000</v>
@@ -24466,6 +24466,32 @@
         <v>351</v>
       </c>
       <c r="H887" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>45547.6421064815</v>
+      </c>
+      <c r="B888" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C888" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="D888" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E888" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0.709999978542328</v>
+      </c>
+      <c r="G888" t="s">
+        <v>267</v>
+      </c>
+      <c r="H888" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.694999992847443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685000002384186</t>
   </si>
 </sst>
 </file>
@@ -24471,7 +24474,7 @@
     </row>
     <row r="888">
       <c r="A888" s="1" t="n">
-        <v>45547.6421064815</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B888" t="n">
         <v>4000</v>
@@ -24492,6 +24495,32 @@
         <v>267</v>
       </c>
       <c r="H888" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>45548.6493634259</v>
+      </c>
+      <c r="B889" t="n">
+        <v>400</v>
+      </c>
+      <c r="C889" t="n">
+        <v>0.735000014305115</v>
+      </c>
+      <c r="D889" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E889" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="G889" t="s">
+        <v>352</v>
+      </c>
+      <c r="H889" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24500,19 +24500,19 @@
     </row>
     <row r="889">
       <c r="A889" s="1" t="n">
-        <v>45548.6493634259</v>
+        <v>45548.2916666667</v>
       </c>
       <c r="B889" t="n">
         <v>400</v>
       </c>
       <c r="C889" t="n">
-        <v>0.735000014305115</v>
+        <v>0.685000002384186</v>
       </c>
       <c r="D889" t="n">
-        <v>0.699999988079071</v>
+        <v>0.685000002384186</v>
       </c>
       <c r="E889" t="n">
-        <v>0.699999988079071</v>
+        <v>0.685000002384186</v>
       </c>
       <c r="F889" t="n">
         <v>0.685000002384186</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24524,6 +24524,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>45551.2916666667</v>
+      </c>
+      <c r="B890" t="n">
+        <v>0</v>
+      </c>
+      <c r="C890" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="D890" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="E890" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="G890" t="s">
+        <v>352</v>
+      </c>
+      <c r="H890" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>45552.5715740741</v>
+      </c>
+      <c r="B891" t="n">
+        <v>800</v>
+      </c>
+      <c r="C891" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="D891" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="E891" t="n">
+        <v>0.685000002384186</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="G891" t="s">
+        <v>247</v>
+      </c>
+      <c r="H891" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24552,7 +24552,7 @@
     </row>
     <row r="891">
       <c r="A891" s="1" t="n">
-        <v>45552.5715740741</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B891" t="n">
         <v>800</v>
@@ -24573,6 +24573,32 @@
         <v>247</v>
       </c>
       <c r="H891" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>45553.5294907407</v>
+      </c>
+      <c r="B892" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C892" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D892" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E892" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G892" t="s">
+        <v>334</v>
+      </c>
+      <c r="H892" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24578,7 +24578,7 @@
     </row>
     <row r="892">
       <c r="A892" s="1" t="n">
-        <v>45553.5294907407</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B892" t="n">
         <v>2400</v>
@@ -24599,6 +24599,32 @@
         <v>334</v>
       </c>
       <c r="H892" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>45554.4972685185</v>
+      </c>
+      <c r="B893" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C893" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="D893" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E893" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="G893" t="s">
+        <v>246</v>
+      </c>
+      <c r="H893" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24604,7 +24604,7 @@
     </row>
     <row r="893">
       <c r="A893" s="1" t="n">
-        <v>45554.4972685185</v>
+        <v>45554.2916666667</v>
       </c>
       <c r="B893" t="n">
         <v>1600</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24628,6 +24628,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>45555.2916666667</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0</v>
+      </c>
+      <c r="C894" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="D894" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="E894" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="G894" t="s">
+        <v>246</v>
+      </c>
+      <c r="H894" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24654,6 +24654,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>45558.2916666667</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0</v>
+      </c>
+      <c r="C895" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="D895" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="E895" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0.720000028610229</v>
+      </c>
+      <c r="G895" t="s">
+        <v>246</v>
+      </c>
+      <c r="H895" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>45559.594849537</v>
+      </c>
+      <c r="B896" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C896" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D896" t="n">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="E896" t="n">
+        <v>0.689999997615814</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G896" t="s">
+        <v>337</v>
+      </c>
+      <c r="H896" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24682,7 +24682,7 @@
     </row>
     <row r="896">
       <c r="A896" s="1" t="n">
-        <v>45559.594849537</v>
+        <v>45559.2916666667</v>
       </c>
       <c r="B896" t="n">
         <v>4800</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24706,6 +24706,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>45560.2916666667</v>
+      </c>
+      <c r="B897" t="n">
+        <v>0</v>
+      </c>
+      <c r="C897" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="D897" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="E897" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G897" t="s">
+        <v>337</v>
+      </c>
+      <c r="H897" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>45561.5636111111</v>
+      </c>
+      <c r="B898" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C898" t="n">
+        <v>0.694999992847443</v>
+      </c>
+      <c r="D898" t="n">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="E898" t="n">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.694999992847443</v>
+      </c>
+      <c r="G898" t="s">
+        <v>351</v>
+      </c>
+      <c r="H898" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24734,7 +24734,7 @@
     </row>
     <row r="898">
       <c r="A898" s="1" t="n">
-        <v>45561.5636111111</v>
+        <v>45561.2916666667</v>
       </c>
       <c r="B898" t="n">
         <v>4000</v>
@@ -24755,6 +24755,32 @@
         <v>351</v>
       </c>
       <c r="H898" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>45562.6516319444</v>
+      </c>
+      <c r="B899" t="n">
+        <v>400</v>
+      </c>
+      <c r="C899" t="n">
+        <v>0.694999992847443</v>
+      </c>
+      <c r="D899" t="n">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.745000004768372</v>
+      </c>
+      <c r="G899" t="s">
+        <v>337</v>
+      </c>
+      <c r="H899" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24760,19 +24760,19 @@
     </row>
     <row r="899">
       <c r="A899" s="1" t="n">
-        <v>45562.6516319444</v>
+        <v>45562.2916666667</v>
       </c>
       <c r="B899" t="n">
         <v>400</v>
       </c>
       <c r="C899" t="n">
-        <v>0.694999992847443</v>
+        <v>0.745000004768372</v>
       </c>
       <c r="D899" t="n">
-        <v>0.675000011920929</v>
+        <v>0.745000004768372</v>
       </c>
       <c r="E899" t="n">
-        <v>0.675000011920929</v>
+        <v>0.745000004768372</v>
       </c>
       <c r="F899" t="n">
         <v>0.745000004768372</v>
@@ -24781,6 +24781,32 @@
         <v>337</v>
       </c>
       <c r="H899" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>45565.4583101852</v>
+      </c>
+      <c r="B900" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C900" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D900" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="E900" t="n">
+        <v>0.714999973773956</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G900" t="s">
+        <v>285</v>
+      </c>
+      <c r="H900" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24786,7 +24786,7 @@
     </row>
     <row r="900">
       <c r="A900" s="1" t="n">
-        <v>45565.4583101852</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B900" t="n">
         <v>44000</v>
@@ -24807,6 +24807,32 @@
         <v>285</v>
       </c>
       <c r="H900" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>45566.6244907407</v>
+      </c>
+      <c r="B901" t="n">
+        <v>18800</v>
+      </c>
+      <c r="C901" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="D901" t="n">
+        <v>0.759999990463257</v>
+      </c>
+      <c r="E901" t="n">
+        <v>0.764999985694885</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.785000026226044</v>
+      </c>
+      <c r="G901" t="s">
+        <v>317</v>
+      </c>
+      <c r="H901" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24812,7 +24812,7 @@
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
-        <v>45566.6244907407</v>
+        <v>45566.2916666667</v>
       </c>
       <c r="B901" t="n">
         <v>18800</v>
@@ -24833,6 +24833,32 @@
         <v>317</v>
       </c>
       <c r="H901" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>45567.5167361111</v>
+      </c>
+      <c r="B902" t="n">
+        <v>8400</v>
+      </c>
+      <c r="C902" t="n">
+        <v>0.795000016689301</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0.774999976158142</v>
+      </c>
+      <c r="E902" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="G902" t="s">
+        <v>292</v>
+      </c>
+      <c r="H902" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24838,7 +24838,7 @@
     </row>
     <row r="902">
       <c r="A902" s="1" t="n">
-        <v>45567.5167361111</v>
+        <v>45567.2916666667</v>
       </c>
       <c r="B902" t="n">
         <v>8400</v>
@@ -24859,6 +24859,32 @@
         <v>292</v>
       </c>
       <c r="H902" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>45568.612037037</v>
+      </c>
+      <c r="B903" t="n">
+        <v>15600</v>
+      </c>
+      <c r="C903" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D903" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E903" t="n">
+        <v>0.785000026226044</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="G903" t="s">
+        <v>277</v>
+      </c>
+      <c r="H903" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24864,7 +24864,7 @@
     </row>
     <row r="903">
       <c r="A903" s="1" t="n">
-        <v>45568.612037037</v>
+        <v>45568.2916666667</v>
       </c>
       <c r="B903" t="n">
         <v>15600</v>
@@ -24885,6 +24885,32 @@
         <v>277</v>
       </c>
       <c r="H903" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>45569.5682523148</v>
+      </c>
+      <c r="B904" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C904" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="D904" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E904" t="n">
+        <v>0.839999973773956</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="G904" t="s">
+        <v>331</v>
+      </c>
+      <c r="H904" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24890,7 +24890,7 @@
     </row>
     <row r="904">
       <c r="A904" s="1" t="n">
-        <v>45569.5682523148</v>
+        <v>45569.2916666667</v>
       </c>
       <c r="B904" t="n">
         <v>10000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24914,6 +24914,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>45572.2916666667</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0</v>
+      </c>
+      <c r="C905" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="D905" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="G905" t="s">
+        <v>331</v>
+      </c>
+      <c r="H905" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>45573.3959722222</v>
+      </c>
+      <c r="B906" t="n">
+        <v>400</v>
+      </c>
+      <c r="C906" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="D906" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="E906" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="G906" t="s">
+        <v>331</v>
+      </c>
+      <c r="H906" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24942,7 +24942,7 @@
     </row>
     <row r="906">
       <c r="A906" s="1" t="n">
-        <v>45573.3959722222</v>
+        <v>45573.2916666667</v>
       </c>
       <c r="B906" t="n">
         <v>400</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24966,6 +24966,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>45574.2916666667</v>
+      </c>
+      <c r="B907" t="n">
+        <v>0</v>
+      </c>
+      <c r="C907" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="E907" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="G907" t="s">
+        <v>331</v>
+      </c>
+      <c r="H907" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -24992,6 +24992,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>45575.2916666667</v>
+      </c>
+      <c r="B908" t="n">
+        <v>0</v>
+      </c>
+      <c r="C908" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="E908" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="G908" t="s">
+        <v>331</v>
+      </c>
+      <c r="H908" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25018,6 +25018,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>45576.2916666667</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0</v>
+      </c>
+      <c r="C909" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="D909" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.824999988079071</v>
+      </c>
+      <c r="G909" t="s">
+        <v>331</v>
+      </c>
+      <c r="H909" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>45579.5676388889</v>
+      </c>
+      <c r="B910" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C910" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D910" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G910" t="s">
+        <v>263</v>
+      </c>
+      <c r="H910" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25046,7 +25046,7 @@
     </row>
     <row r="910">
       <c r="A910" s="1" t="n">
-        <v>45579.5676388889</v>
+        <v>45579.2916666667</v>
       </c>
       <c r="B910" t="n">
         <v>2800</v>
@@ -25067,6 +25067,32 @@
         <v>263</v>
       </c>
       <c r="H910" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>45580.6377314815</v>
+      </c>
+      <c r="B911" t="n">
+        <v>400</v>
+      </c>
+      <c r="C911" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D911" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E911" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G911" t="s">
+        <v>263</v>
+      </c>
+      <c r="H911" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25072,7 +25072,7 @@
     </row>
     <row r="911">
       <c r="A911" s="1" t="n">
-        <v>45580.6377314815</v>
+        <v>45580.2916666667</v>
       </c>
       <c r="B911" t="n">
         <v>400</v>
@@ -25093,6 +25093,32 @@
         <v>263</v>
       </c>
       <c r="H911" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>45581.3212847222</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C912" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D912" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E912" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G912" t="s">
+        <v>263</v>
+      </c>
+      <c r="H912" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25098,7 +25098,7 @@
     </row>
     <row r="912">
       <c r="A912" s="1" t="n">
-        <v>45581.3212847222</v>
+        <v>45581.2916666667</v>
       </c>
       <c r="B912" t="n">
         <v>1600</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25122,6 +25122,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>45582.2916666667</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0</v>
+      </c>
+      <c r="C913" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D913" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E913" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G913" t="s">
+        <v>263</v>
+      </c>
+      <c r="H913" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25148,6 +25148,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>45583.2916666667</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0</v>
+      </c>
+      <c r="C914" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G914" t="s">
+        <v>263</v>
+      </c>
+      <c r="H914" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25174,6 +25174,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>45586.2916666667</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0</v>
+      </c>
+      <c r="C915" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="D915" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="E915" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G915" t="s">
+        <v>263</v>
+      </c>
+      <c r="H915" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>45587.5653240741</v>
+      </c>
+      <c r="B916" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="G916" t="s">
+        <v>316</v>
+      </c>
+      <c r="H916" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25200,32 +25200,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>45587.5653240741</v>
-      </c>
-      <c r="B916" t="n">
-        <v>3200</v>
-      </c>
-      <c r="C916" t="n">
-        <v>0.814999997615814</v>
-      </c>
-      <c r="D916" t="n">
-        <v>0.814999997615814</v>
-      </c>
-      <c r="E916" t="n">
-        <v>0.814999997615814</v>
-      </c>
-      <c r="F916" t="n">
-        <v>0.814999997615814</v>
-      </c>
-      <c r="G916" t="s">
-        <v>316</v>
-      </c>
-      <c r="H916" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25200,6 +25200,84 @@
         <v>9</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>45587.2916666667</v>
+      </c>
+      <c r="B916" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="G916" t="s">
+        <v>316</v>
+      </c>
+      <c r="H916" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>45588.2916666667</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0</v>
+      </c>
+      <c r="C917" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="D917" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="E917" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.814999997615814</v>
+      </c>
+      <c r="G917" t="s">
+        <v>316</v>
+      </c>
+      <c r="H917" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>45589.5964583333</v>
+      </c>
+      <c r="B918" t="n">
+        <v>14000</v>
+      </c>
+      <c r="C918" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D918" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E918" t="n">
+        <v>0.845000028610229</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="G918" t="s">
+        <v>279</v>
+      </c>
+      <c r="H918" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.685000002384186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855000019073486</t>
   </si>
 </sst>
 </file>
@@ -25254,7 +25257,7 @@
     </row>
     <row r="918">
       <c r="A918" s="1" t="n">
-        <v>45589.5964583333</v>
+        <v>45589.2916666667</v>
       </c>
       <c r="B918" t="n">
         <v>14000</v>
@@ -25275,6 +25278,32 @@
         <v>279</v>
       </c>
       <c r="H918" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>45590.5865856481</v>
+      </c>
+      <c r="B919" t="n">
+        <v>800</v>
+      </c>
+      <c r="C919" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D919" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="E919" t="n">
+        <v>0.845000028610229</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G919" t="s">
+        <v>353</v>
+      </c>
+      <c r="H919" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25283,7 +25283,7 @@
     </row>
     <row r="919">
       <c r="A919" s="1" t="n">
-        <v>45590.5865856481</v>
+        <v>45590.2916666667</v>
       </c>
       <c r="B919" t="n">
         <v>800</v>
@@ -25295,7 +25295,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="E919" t="n">
-        <v>0.845000028610229</v>
+        <v>0.819999992847443</v>
       </c>
       <c r="F919" t="n">
         <v>0.855000019073486</v>
@@ -25304,6 +25304,32 @@
         <v>353</v>
       </c>
       <c r="H919" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>45593.5397337963</v>
+      </c>
+      <c r="B920" t="n">
+        <v>800</v>
+      </c>
+      <c r="C920" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D920" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G920" t="s">
+        <v>288</v>
+      </c>
+      <c r="H920" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1074,6 +1074,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.855000019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12999999523163</t>
   </si>
 </sst>
 </file>
@@ -25309,7 +25312,7 @@
     </row>
     <row r="920">
       <c r="A920" s="1" t="n">
-        <v>45593.5397337963</v>
+        <v>45593.3333333333</v>
       </c>
       <c r="B920" t="n">
         <v>800</v>
@@ -25330,6 +25333,32 @@
         <v>288</v>
       </c>
       <c r="H920" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>45594.6406597222</v>
+      </c>
+      <c r="B921" t="n">
+        <v>131200</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E921" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G921" t="s">
+        <v>354</v>
+      </c>
+      <c r="H921" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25338,7 +25338,7 @@
     </row>
     <row r="921">
       <c r="A921" s="1" t="n">
-        <v>45594.6406597222</v>
+        <v>45594.3333333333</v>
       </c>
       <c r="B921" t="n">
         <v>131200</v>
@@ -25359,6 +25359,32 @@
         <v>354</v>
       </c>
       <c r="H921" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>45595.4176736111</v>
+      </c>
+      <c r="B922" t="n">
+        <v>33600</v>
+      </c>
+      <c r="C922" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E922" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F922" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G922" t="s">
+        <v>354</v>
+      </c>
+      <c r="H922" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25364,7 +25364,7 @@
     </row>
     <row r="922">
       <c r="A922" s="1" t="n">
-        <v>45595.4176736111</v>
+        <v>45595.3333333333</v>
       </c>
       <c r="B922" t="n">
         <v>33600</v>
@@ -25385,6 +25385,32 @@
         <v>354</v>
       </c>
       <c r="H922" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>45596.5705902778</v>
+      </c>
+      <c r="B923" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F923" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G923" t="s">
+        <v>354</v>
+      </c>
+      <c r="H923" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25390,7 +25390,7 @@
     </row>
     <row r="923">
       <c r="A923" s="1" t="n">
-        <v>45596.5705902778</v>
+        <v>45596.3333333333</v>
       </c>
       <c r="B923" t="n">
         <v>3200</v>
@@ -25411,6 +25411,58 @@
         <v>354</v>
       </c>
       <c r="H923" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B924" t="n">
+        <v>0</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F924" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G924" t="s">
+        <v>354</v>
+      </c>
+      <c r="H924" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>45600.5752777778</v>
+      </c>
+      <c r="B925" t="n">
+        <v>800</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F925" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G925" t="s">
+        <v>354</v>
+      </c>
+      <c r="H925" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25442,7 +25442,7 @@
     </row>
     <row r="925">
       <c r="A925" s="1" t="n">
-        <v>45600.5752777778</v>
+        <v>45600.3333333333</v>
       </c>
       <c r="B925" t="n">
         <v>800</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25466,6 +25466,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>45601.3333333333</v>
+      </c>
+      <c r="B926" t="n">
+        <v>0</v>
+      </c>
+      <c r="C926" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E926" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G926" t="s">
+        <v>354</v>
+      </c>
+      <c r="H926" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>45602.3471180556</v>
+      </c>
+      <c r="B927" t="n">
+        <v>17600</v>
+      </c>
+      <c r="C927" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E927" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F927" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G927" t="s">
+        <v>354</v>
+      </c>
+      <c r="H927" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25494,7 +25494,7 @@
     </row>
     <row r="927">
       <c r="A927" s="1" t="n">
-        <v>45602.3471180556</v>
+        <v>45602.3333333333</v>
       </c>
       <c r="B927" t="n">
         <v>17600</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25518,6 +25518,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>45603.3333333333</v>
+      </c>
+      <c r="B928" t="n">
+        <v>0</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E928" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G928" t="s">
+        <v>354</v>
+      </c>
+      <c r="H928" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25544,6 +25544,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>45604.3333333333</v>
+      </c>
+      <c r="B929" t="n">
+        <v>0</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E929" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F929" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G929" t="s">
+        <v>354</v>
+      </c>
+      <c r="H929" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>45607.3333796296</v>
+      </c>
+      <c r="B930" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E930" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F930" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G930" t="s">
+        <v>231</v>
+      </c>
+      <c r="H930" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25572,7 +25572,7 @@
     </row>
     <row r="930">
       <c r="A930" s="1" t="n">
-        <v>45607.3333796296</v>
+        <v>45607.3333333333</v>
       </c>
       <c r="B930" t="n">
         <v>1200</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25596,6 +25596,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>45608.3333333333</v>
+      </c>
+      <c r="B931" t="n">
+        <v>0</v>
+      </c>
+      <c r="C931" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E931" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F931" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G931" t="s">
+        <v>231</v>
+      </c>
+      <c r="H931" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>45609.5183217593</v>
+      </c>
+      <c r="B932" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C932" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G932" t="s">
+        <v>231</v>
+      </c>
+      <c r="H932" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25624,7 +25624,7 @@
     </row>
     <row r="932">
       <c r="A932" s="1" t="n">
-        <v>45609.5183217593</v>
+        <v>45609.3333333333</v>
       </c>
       <c r="B932" t="n">
         <v>4000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25648,6 +25648,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>45610.3333333333</v>
+      </c>
+      <c r="B933" t="n">
+        <v>0</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E933" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F933" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G933" t="s">
+        <v>231</v>
+      </c>
+      <c r="H933" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>45611.6833217593</v>
+      </c>
+      <c r="B934" t="n">
+        <v>800</v>
+      </c>
+      <c r="C934" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E934" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="F934" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G934" t="s">
+        <v>354</v>
+      </c>
+      <c r="H934" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25676,7 +25676,7 @@
     </row>
     <row r="934">
       <c r="A934" s="1" t="n">
-        <v>45611.6833217593</v>
+        <v>45611.3333333333</v>
       </c>
       <c r="B934" t="n">
         <v>800</v>
@@ -25697,6 +25697,32 @@
         <v>354</v>
       </c>
       <c r="H934" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>45614.5764930556</v>
+      </c>
+      <c r="B935" t="n">
+        <v>22800</v>
+      </c>
+      <c r="C935" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E935" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F935" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="G935" t="s">
+        <v>354</v>
+      </c>
+      <c r="H935" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25702,7 +25702,7 @@
     </row>
     <row r="935">
       <c r="A935" s="1" t="n">
-        <v>45614.5764930556</v>
+        <v>45614.3333333333</v>
       </c>
       <c r="B935" t="n">
         <v>22800</v>
@@ -25723,6 +25723,32 @@
         <v>354</v>
       </c>
       <c r="H935" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>45615.6066898148</v>
+      </c>
+      <c r="B936" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C936" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E936" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F936" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G936" t="s">
+        <v>231</v>
+      </c>
+      <c r="H936" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25728,7 +25728,7 @@
     </row>
     <row r="936">
       <c r="A936" s="1" t="n">
-        <v>45615.6066898148</v>
+        <v>45615.3333333333</v>
       </c>
       <c r="B936" t="n">
         <v>3200</v>
@@ -25749,6 +25749,32 @@
         <v>231</v>
       </c>
       <c r="H936" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>45616.3895138889</v>
+      </c>
+      <c r="B937" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C937" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1.12999999523163</v>
+      </c>
+      <c r="E937" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G937" t="s">
+        <v>231</v>
+      </c>
+      <c r="H937" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25754,7 +25754,7 @@
     </row>
     <row r="937">
       <c r="A937" s="1" t="n">
-        <v>45616.3895138889</v>
+        <v>45616.3333333333</v>
       </c>
       <c r="B937" t="n">
         <v>5600</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25778,6 +25778,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>45617.3333333333</v>
+      </c>
+      <c r="B938" t="n">
+        <v>0</v>
+      </c>
+      <c r="C938" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E938" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G938" t="s">
+        <v>231</v>
+      </c>
+      <c r="H938" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>45618.3642708333</v>
+      </c>
+      <c r="B939" t="n">
+        <v>400</v>
+      </c>
+      <c r="C939" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E939" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F939" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G939" t="s">
+        <v>231</v>
+      </c>
+      <c r="H939" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25806,7 +25806,7 @@
     </row>
     <row r="939">
       <c r="A939" s="1" t="n">
-        <v>45618.3642708333</v>
+        <v>45618.3333333333</v>
       </c>
       <c r="B939" t="n">
         <v>400</v>
@@ -25827,6 +25827,32 @@
         <v>231</v>
       </c>
       <c r="H939" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>45621.5200462963</v>
+      </c>
+      <c r="B940" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C940" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E940" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F940" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G940" t="s">
+        <v>231</v>
+      </c>
+      <c r="H940" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25832,7 +25832,7 @@
     </row>
     <row r="940">
       <c r="A940" s="1" t="n">
-        <v>45621.5200462963</v>
+        <v>45621.3333333333</v>
       </c>
       <c r="B940" t="n">
         <v>1600</v>
@@ -25853,6 +25853,32 @@
         <v>231</v>
       </c>
       <c r="H940" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>45622.6913078704</v>
+      </c>
+      <c r="B941" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C941" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E941" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F941" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="G941" t="s">
+        <v>229</v>
+      </c>
+      <c r="H941" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25858,13 +25858,13 @@
     </row>
     <row r="941">
       <c r="A941" s="1" t="n">
-        <v>45622.6913078704</v>
+        <v>45622.3333333333</v>
       </c>
       <c r="B941" t="n">
         <v>5600</v>
       </c>
       <c r="C941" t="n">
-        <v>1.13999998569489</v>
+        <v>1.14999997615814</v>
       </c>
       <c r="D941" t="n">
         <v>1.13999998569489</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1077,6 +1077,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.12999999523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10000002384186</t>
   </si>
 </sst>
 </file>
@@ -25882,6 +25885,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>45623.3333333333</v>
+      </c>
+      <c r="B942" t="n">
+        <v>0</v>
+      </c>
+      <c r="C942" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="E942" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="F942" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="G942" t="s">
+        <v>229</v>
+      </c>
+      <c r="H942" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>45624.375787037</v>
+      </c>
+      <c r="B943" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E943" t="n">
+        <v>1.12000000476837</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G943" t="s">
+        <v>355</v>
+      </c>
+      <c r="H943" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25913,7 +25913,7 @@
     </row>
     <row r="943">
       <c r="A943" s="1" t="n">
-        <v>45624.375787037</v>
+        <v>45624.3333333333</v>
       </c>
       <c r="B943" t="n">
         <v>4000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25937,6 +25937,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>45625.3333333333</v>
+      </c>
+      <c r="B944" t="n">
+        <v>0</v>
+      </c>
+      <c r="C944" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="F944" t="n">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="G944" t="s">
+        <v>355</v>
+      </c>
+      <c r="H944" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>45628.5784606481</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E945" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F945" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="G945" t="s">
+        <v>228</v>
+      </c>
+      <c r="H945" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25965,7 +25965,7 @@
     </row>
     <row r="945">
       <c r="A945" s="1" t="n">
-        <v>45628.5784606481</v>
+        <v>45628.3333333333</v>
       </c>
       <c r="B945" t="n">
         <v>1200</v>
@@ -25986,6 +25986,32 @@
         <v>228</v>
       </c>
       <c r="H945" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>45629.6084490741</v>
+      </c>
+      <c r="B946" t="n">
+        <v>38800</v>
+      </c>
+      <c r="C946" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E946" t="n">
+        <v>1.14999997615814</v>
+      </c>
+      <c r="F946" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G946" t="s">
+        <v>231</v>
+      </c>
+      <c r="H946" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -25991,7 +25991,7 @@
     </row>
     <row r="946">
       <c r="A946" s="1" t="n">
-        <v>45629.6084490741</v>
+        <v>45629.3333333333</v>
       </c>
       <c r="B946" t="n">
         <v>38800</v>
@@ -26012,6 +26012,32 @@
         <v>231</v>
       </c>
       <c r="H946" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>45630.6521064815</v>
+      </c>
+      <c r="B947" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C947" t="n">
+        <v>1.1599999666214</v>
+      </c>
+      <c r="D947" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E947" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F947" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G947" t="s">
+        <v>231</v>
+      </c>
+      <c r="H947" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -26017,7 +26017,7 @@
     </row>
     <row r="947">
       <c r="A947" s="1" t="n">
-        <v>45630.6521064815</v>
+        <v>45630.3333333333</v>
       </c>
       <c r="B947" t="n">
         <v>6000</v>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -26041,6 +26041,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>45631.3333333333</v>
+      </c>
+      <c r="B948" t="n">
+        <v>0</v>
+      </c>
+      <c r="C948" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E948" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F948" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G948" t="s">
+        <v>231</v>
+      </c>
+      <c r="H948" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -26067,6 +26067,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>45632.3333333333</v>
+      </c>
+      <c r="B949" t="n">
+        <v>0</v>
+      </c>
+      <c r="C949" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D949" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E949" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G949" t="s">
+        <v>231</v>
+      </c>
+      <c r="H949" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/TWEP.MI.xlsx
+++ b/data/TWEP.MI.xlsx
@@ -26093,6 +26093,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>45635.3333333333</v>
+      </c>
+      <c r="B950" t="n">
+        <v>0</v>
+      </c>
+      <c r="C950" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="D950" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="E950" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1.13999998569489</v>
+      </c>
+      <c r="G950" t="s">
+        <v>231</v>
+      </c>
+      <c r="H950" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
